--- a/raspinovka_raspi.xlsx
+++ b/raspinovka_raspi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t xml:space="preserve">Raspberry PI B+ камера разъем J8</t>
   </si>
@@ -109,37 +109,31 @@
     <t xml:space="preserve">подключение акселерометра:</t>
   </si>
   <si>
-    <t xml:space="preserve">Pin 25 (GND)</t>
+    <t xml:space="preserve">Pin 6 (GND)</t>
   </si>
   <si>
     <t xml:space="preserve">GND</t>
   </si>
   <si>
-    <t xml:space="preserve">Pin 26</t>
-  </si>
-  <si>
     <t xml:space="preserve">INT 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Pin 29</t>
-  </si>
-  <si>
     <t xml:space="preserve">INT 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Pin 17</t>
+    <t xml:space="preserve">Pin 1</t>
   </si>
   <si>
     <t xml:space="preserve">3.3V</t>
   </si>
   <si>
-    <t xml:space="preserve">Pin 27</t>
+    <t xml:space="preserve">Pin 3</t>
   </si>
   <si>
     <t xml:space="preserve">SDA</t>
   </si>
   <si>
-    <t xml:space="preserve">Pin 28</t>
+    <t xml:space="preserve">Pin 5</t>
   </si>
   <si>
     <t xml:space="preserve">SCK</t>
@@ -255,10 +249,10 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -387,63 +381,63 @@
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
